--- a/mysql/Stress_Acc_template.xlsx
+++ b/mysql/Stress_Acc_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhatv\Work\TechnoStar\go-lang\charts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhatv\Work\TechnoStar\go-lang\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94667976-85EF-48EA-B325-25667055A239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15756F3A-E859-40B1-B197-9ED8B52432BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MENR" sheetId="1" r:id="rId1"/>
@@ -40617,7 +40617,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -40911,7 +40911,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:DQ139"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="DS28" sqref="DS28"/>
     </sheetView>
   </sheetViews>
